--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_winter_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_winter_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>m1wu1Khuu5iIwBA</t>
+    <t>oSVS01xywAUCsNb</t>
   </si>
   <si>
     <t>000018853.csv</t>
@@ -1544,7 +1544,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_8', 'sfh_31', 'sfh_35', 'sfh_5', 'sfh_9', 'sfh_20', 'sfh_28', 'sfh_13', 'sfh_2', 'sfh_17']</t>
+    <t>['sfh_16', 'sfh_2', 'sfh_35', 'sfh_8', 'sfh_5', 'sfh_13', 'sfh_20', 'sfh_17', 'sfh_33', 'sfh_0']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2799,7 +2799,10 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
@@ -2956,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3148,7 +3151,7 @@
         <v>484</v>
       </c>
       <c r="IN2">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3199,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3208,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3221,11 +3224,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3234,7 +3237,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3393,7 +3396,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3648,7 +3651,7 @@
         <v>484</v>
       </c>
       <c r="IN3">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3699,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3708,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3721,14 +3724,14 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>328</v>
       </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3737,7 +3740,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4073,7 +4076,7 @@
         <v>484</v>
       </c>
       <c r="IN4">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4124,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4146,11 +4149,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="G5">
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4159,7 +4162,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4318,7 +4321,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4657,7 +4660,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4666,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>494</v>
@@ -4733,7 +4736,7 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6">
@@ -4905,7 +4908,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5133,7 +5136,7 @@
         <v>484</v>
       </c>
       <c r="IN6">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5184,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5193,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5206,11 +5209,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7">
         <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>328</v>
       </c>
       <c r="H7">
         <v>130</v>
@@ -5366,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5558,7 +5561,7 @@
         <v>484</v>
       </c>
       <c r="IN7">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5609,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5618,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5631,11 +5634,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5644,7 +5647,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5788,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -5980,7 +5983,7 @@
         <v>484</v>
       </c>
       <c r="IN8">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6031,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ8">
         <v>0</v>
@@ -6040,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:290">
@@ -6053,11 +6056,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6066,7 +6069,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6225,7 +6228,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6558,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6567,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>495</v>
@@ -6607,14 +6610,14 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>328</v>
       </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
       <c r="H10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6623,7 +6626,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -6767,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -6959,7 +6962,7 @@
         <v>484</v>
       </c>
       <c r="IN10">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7010,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7019,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7032,11 +7035,8 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>328</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7384,7 +7384,7 @@
         <v>484</v>
       </c>
       <c r="IN11">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7457,11 +7457,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>4</v>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7470,7 +7470,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7629,7 +7629,7 @@
         <v>42</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM12" t="s">
         <v>496</v>
@@ -8038,7 +8038,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
@@ -8210,7 +8210,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8565,7 +8565,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8737,7 +8737,7 @@
         <v>51</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8992,7 +8992,7 @@
         <v>484</v>
       </c>
       <c r="IN14">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -9065,11 +9065,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>328</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9417,7 +9417,7 @@
         <v>484</v>
       </c>
       <c r="IN15">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9490,7 +9490,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
@@ -9662,7 +9662,7 @@
         <v>45</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9944,7 +9944,7 @@
         <v>484</v>
       </c>
       <c r="IN16">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -10001,7 +10001,7 @@
         <v>45</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:281">
@@ -10023,7 +10023,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
@@ -10195,7 +10195,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10450,7 +10450,7 @@
         <v>484</v>
       </c>
       <c r="IN17">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:281">
@@ -10523,11 +10523,14 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>3</v>
+      <c r="F18" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10536,7 +10539,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10680,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10872,7 +10875,7 @@
         <v>484</v>
       </c>
       <c r="IN18">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10923,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10932,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:281">
@@ -10945,14 +10948,14 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>328</v>
       </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
       <c r="H19">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10961,7 +10964,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11105,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11297,7 +11300,7 @@
         <v>484</v>
       </c>
       <c r="IN19">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11348,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11357,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:281">
@@ -11370,11 +11373,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11383,7 +11386,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11542,7 +11545,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11797,7 +11800,7 @@
         <v>484</v>
       </c>
       <c r="IN20">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11848,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11857,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:281">
@@ -11870,7 +11873,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
@@ -12042,7 +12045,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12297,7 +12300,7 @@
         <v>484</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12348,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12357,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:281">
@@ -12370,11 +12373,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>328</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -12530,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12773,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12782,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:281">
@@ -12795,7 +12798,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
       <c r="H23">
@@ -12967,7 +12970,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13249,7 +13252,7 @@
         <v>484</v>
       </c>
       <c r="IN23">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13306,7 +13309,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13321,7 +13324,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>497</v>
@@ -13361,7 +13364,7 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4</v>
       </c>
       <c r="H24">
@@ -13533,7 +13536,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13839,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13848,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:281">
@@ -13861,7 +13864,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
@@ -14033,7 +14036,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14288,7 +14291,7 @@
         <v>484</v>
       </c>
       <c r="IN25">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14339,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14348,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:281">
@@ -14361,7 +14364,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
@@ -14533,7 +14536,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14815,7 +14818,7 @@
         <v>484</v>
       </c>
       <c r="IN26">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14872,7 +14875,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14881,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:281">
@@ -14894,11 +14897,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14907,7 +14910,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15066,7 +15069,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15348,7 +15351,7 @@
         <v>484</v>
       </c>
       <c r="IN27">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15399,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15408,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:281">
@@ -15421,7 +15424,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4</v>
       </c>
       <c r="H28">
@@ -15593,7 +15596,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15875,7 +15878,7 @@
         <v>484</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15932,7 +15935,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15941,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:281">
@@ -15954,11 +15957,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -15967,7 +15970,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -16126,7 +16129,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16354,7 +16357,7 @@
         <v>484</v>
       </c>
       <c r="IN29">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16411,7 +16414,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16420,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:281">
@@ -16433,14 +16436,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>328</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16449,7 +16449,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16785,7 +16785,7 @@
         <v>484</v>
       </c>
       <c r="IN30">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:281">
@@ -16858,7 +16858,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -17015,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17207,7 +17207,7 @@
         <v>484</v>
       </c>
       <c r="IN31">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17258,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:281">
@@ -17280,7 +17280,7 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17629,7 +17629,7 @@
         <v>484</v>
       </c>
       <c r="IN32">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -17689,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17702,11 +17702,8 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>328</v>
+      <c r="G33">
+        <v>3</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -17862,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18105,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18114,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18127,11 +18124,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18140,7 +18137,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18299,7 +18296,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18632,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18641,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>498</v>
@@ -18708,7 +18705,10 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19057,7 +19057,7 @@
         <v>484</v>
       </c>
       <c r="IN35">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19130,11 +19130,11 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19143,7 +19143,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19302,7 +19302,7 @@
         <v>45</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19657,14 +19657,14 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>328</v>
       </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
       <c r="H37">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19673,7 +19673,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20009,7 +20009,7 @@
         <v>484</v>
       </c>
       <c r="IN37">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20069,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20082,7 +20082,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
@@ -20254,7 +20254,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20536,7 +20536,7 @@
         <v>484</v>
       </c>
       <c r="IN38">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20596,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20609,7 +20609,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4</v>
       </c>
       <c r="H39">
@@ -20781,7 +20781,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21063,7 +21063,7 @@
         <v>484</v>
       </c>
       <c r="IN39">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21120,7 +21120,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21142,7 +21142,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4</v>
       </c>
       <c r="H40">
@@ -21314,7 +21314,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21596,7 +21596,7 @@
         <v>484</v>
       </c>
       <c r="IN40">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21689,7 +21689,7 @@
         <v>502</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>503</v>
@@ -21808,7 +21808,7 @@
         <v>484</v>
       </c>
       <c r="S2">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="T2">
         <v>1</v>
